--- a/data/Subset 1/Video Mosaic Grade 7 Guess Rule 6.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 7 Guess Rule 6.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[pointing his finger to G4] I got that on lock down.</t>
+          <t>[pointing his finger to T] I got that on lock down.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[turning his head towards G4] Eighty-four?</t>
+          <t>[turning his head towards T] Eighty-four?</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[pointing something in his paper to G4 who is coming around to his  side] I know that there is some pattern… between this one and this one.</t>
+          <t>[pointing something in his paper to T who is coming around to his  side] I know that there is some pattern… between this one and this one.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[to G4] Have you guys got more problems?</t>
+          <t>[to T] Have you guys got more problems?</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
